--- a/dm vinyl MP.xlsx
+++ b/dm vinyl MP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\code\THF\THF_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5BAD85-2A80-428E-9226-C2D5E32A5F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD12872-662A-4A12-95A3-9F50ACC83310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FD4A5F2-01AA-4114-B721-231AFE2A379B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Painting</t>
   </si>
@@ -177,12 +177,6 @@
     <t>DB Order</t>
   </si>
   <si>
-    <t>DB Install &amp; Termination Zone 1/2</t>
-  </si>
-  <si>
-    <t>DB Install &amp; Termination Zone 3/4</t>
-  </si>
-  <si>
     <t>Programming</t>
   </si>
   <si>
@@ -220,6 +214,30 @@
   </si>
   <si>
     <t>DM On Site</t>
+  </si>
+  <si>
+    <t>DB I&amp;T Zones 3/4</t>
+  </si>
+  <si>
+    <t>DB I&amp;T Zones 1/2</t>
+  </si>
+  <si>
+    <t>Zone 1 Low Level 3rd Fix</t>
+  </si>
+  <si>
+    <t>Zone 2 Low Level 3rd Fix</t>
+  </si>
+  <si>
+    <t>Zone 3 Low Level 3rd Fix</t>
+  </si>
+  <si>
+    <t>Zone 4 Low Level 3rd Fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Close Out </t>
+  </si>
+  <si>
+    <t>Structure</t>
   </si>
 </sst>
 </file>
@@ -590,7 +608,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -714,13 +732,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6</c:v>
@@ -1192,6 +1210,9 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2619,7 +2640,7 @@
   <dimension ref="B3:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,7 +2722,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3">
         <v>46002</v>
@@ -2728,11 +2749,11 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3">
-        <f>J16+K16</f>
-        <v>46002</v>
+        <f>J15+K15</f>
+        <v>46005</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -2762,7 +2783,7 @@
         <v>46011</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>39</v>
@@ -2838,7 +2859,7 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -2868,7 +2889,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:J16" si="0">J13+1</f>
+        <f t="shared" ref="J14" si="0">J13+1</f>
         <v>46003</v>
       </c>
       <c r="K14" s="2">
@@ -2898,6 +2919,9 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2919,7 +2943,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2930,19 +2957,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J18" s="3">
-        <f>C4+4</f>
-        <v>46001</v>
+        <f>C4+8</f>
+        <v>46005</v>
       </c>
       <c r="K18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
@@ -2954,17 +2987,17 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J19" s="3">
         <f>J18+K18</f>
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="K19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -2976,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
@@ -2988,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J21" s="3">
         <v>46002</v>
@@ -2997,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
@@ -3009,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J22" s="3">
         <f>J21+1</f>
@@ -3019,9 +3052,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23" s="3">
         <f>J22+1</f>
@@ -3031,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3043,7 +3079,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3055,17 +3094,17 @@
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" s="3">
-        <f>J23+K23</f>
-        <v>46007</v>
+        <f>J19+K19-1</f>
+        <v>46008</v>
       </c>
       <c r="K25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
@@ -3077,7 +3116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E27" s="2" t="s">
         <v>25</v>
       </c>
@@ -3089,9 +3128,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3">
         <f>F24+1</f>
@@ -3101,21 +3140,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" ref="F30:F32" si="3">F25+1</f>
+        <f t="shared" ref="F30:F31" si="3">F25+1</f>
         <v>46010</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
@@ -3125,9 +3164,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="3">
         <f>F27+1</f>
@@ -3139,7 +3178,7 @@
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F34" s="3">
         <f>F14</f>
@@ -3158,7 +3197,7 @@
         <v>46004</v>
       </c>
       <c r="G35" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.3">
@@ -3173,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC7E7AD-B68D-4A68-B426-FDC1F7AFA770}">
-  <dimension ref="C3:T16"/>
+  <dimension ref="C3:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3187,7 +3226,7 @@
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C3" s="8"/>
       <c r="D3" s="5">
         <v>45995</v>
@@ -3240,8 +3279,20 @@
       <c r="T3" s="4">
         <v>46011</v>
       </c>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="U3" s="4">
+        <v>46012</v>
+      </c>
+      <c r="V3" s="4">
+        <v>46013</v>
+      </c>
+      <c r="W3" s="4">
+        <v>46014</v>
+      </c>
+      <c r="X3" s="4">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
@@ -3285,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" s="10">
         <v>3</v>
@@ -3296,8 +3347,20 @@
       <c r="T4" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="U4" s="6">
+        <v>3</v>
+      </c>
+      <c r="V4" s="6">
+        <v>3</v>
+      </c>
+      <c r="W4" s="6">
+        <v>3</v>
+      </c>
+      <c r="X4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
@@ -3321,13 +3384,13 @@
         <v>20</v>
       </c>
       <c r="O5" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P5" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R5" s="10">
         <v>6</v>
@@ -3338,8 +3401,20 @@
       <c r="T5" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="U5" s="10">
+        <v>6</v>
+      </c>
+      <c r="V5" s="10">
+        <v>6</v>
+      </c>
+      <c r="W5" s="10">
+        <v>6</v>
+      </c>
+      <c r="X5" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
@@ -3367,7 +3442,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3476,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
@@ -3433,7 +3508,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3467,9 +3542,23 @@
       <c r="S9" s="6">
         <v>6</v>
       </c>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="T9" s="6">
+        <v>6</v>
+      </c>
+      <c r="U9" s="6">
+        <v>6</v>
+      </c>
+      <c r="V9" s="6">
+        <v>6</v>
+      </c>
+      <c r="W9" s="6">
+        <v>6</v>
+      </c>
+      <c r="X9" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
@@ -3491,7 +3580,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -3526,8 +3615,20 @@
       <c r="T11" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="6">
+        <v>6</v>
+      </c>
+      <c r="V11" s="6">
+        <v>6</v>
+      </c>
+      <c r="W11" s="6">
+        <v>6</v>
+      </c>
+      <c r="X11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -3547,7 +3648,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -3567,7 +3668,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -3587,7 +3688,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
@@ -3607,7 +3708,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
